--- a/structure-data_sample-excel/dataTGDD.xlsx
+++ b/structure-data_sample-excel/dataTGDD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nhom9_DW\structure_db_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-Python\Data-Warehouse\structure-data_sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F2E85-5AE3-46C6-BDB1-3C4BCD2DAE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B8BACC-48D0-4D10-B15B-A6998601C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
   </bookViews>
   <sheets>
     <sheet name="TGDD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="171">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -178,15 +178,6 @@
   </si>
   <si>
     <t>TEXT</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
   </si>
   <si>
     <t>Field name</t>
@@ -554,13 +545,19 @@
   </si>
   <si>
     <t>Data sample</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>source_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +609,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -633,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -730,12 +734,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,6 +813,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,41 +909,41 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2599,7 +2621,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28E95B3E-CE7D-4643-BB97-2B62A238A835}" name="Table19" displayName="Table19" ref="A6:D53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28E95B3E-CE7D-4643-BB97-2B62A238A835}" name="Table19" displayName="Table19" ref="A6:D53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A6:D53" xr:uid="{28E95B3E-CE7D-4643-BB97-2B62A238A835}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2915,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1F10B-208E-43E6-BB9E-2501B50A43BF}">
   <dimension ref="A5:AU63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,23 +2993,23 @@
   <sheetData>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
@@ -3009,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3064,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,7 +3119,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3163,7 +3185,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,7 +3207,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,7 +3229,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,7 +3240,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3240,7 +3262,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,7 +3273,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3284,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3273,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,7 +3306,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3317,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,7 +3328,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3317,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3350,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3339,7 +3361,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3350,7 +3372,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3361,7 +3383,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3394,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3394,7 +3416,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,7 +3427,7 @@
         <v>35</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,7 +3438,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3449,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,10 +3460,10 @@
         <v>38</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AU50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3463,7 +3485,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3485,12 +3507,12 @@
         <v>42</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,133 +3523,133 @@
         <v>0</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="G60" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="K60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="L60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="M60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="N60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="O60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="P60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="Q60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="R60" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="S60" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="T60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="U60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S60" s="11" t="s">
+      <c r="V60" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="T60" s="11" t="s">
+      <c r="W60" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="X60" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="V60" s="11" t="s">
+      <c r="Y60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="W60" s="11" t="s">
+      <c r="Z60" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="X60" s="11" t="s">
+      <c r="AA60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Y60" s="11" t="s">
+      <c r="AB60" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Z60" s="11" t="s">
+      <c r="AC60" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AA60" s="11" t="s">
+      <c r="AE60" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AB60" s="11" t="s">
+      <c r="AF60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AC60" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD60" s="11" t="s">
+      <c r="AG60" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AE60" s="11" t="s">
+      <c r="AH60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AF60" s="11" t="s">
+      <c r="AI60" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AG60" s="11" t="s">
+      <c r="AJ60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AH60" s="11" t="s">
+      <c r="AK60" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AI60" s="11" t="s">
+      <c r="AL60" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AJ60" s="11" t="s">
+      <c r="AM60" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AK60" s="11" t="s">
+      <c r="AN60" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AL60" s="11" t="s">
+      <c r="AO60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AM60" s="11" t="s">
+      <c r="AP60" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AN60" s="11" t="s">
+      <c r="AQ60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR60" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AO60" s="11" t="s">
+      <c r="AS60" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="AP60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ60" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR60" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS60" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3635,136 +3657,136 @@
         <v>1</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="G61" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="H61" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="I61" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="J61" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="K61" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="L61" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="M61" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="N61" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="O61" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M61" s="13" t="s">
+      <c r="P61" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N61" s="13" t="s">
+      <c r="Q61" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="O61" s="13" t="s">
+      <c r="R61" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="13" t="s">
+      <c r="S61" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q61" s="13" t="s">
+      <c r="T61" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R61" s="13" t="s">
+      <c r="U61" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S61" s="13" t="s">
+      <c r="V61" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="13" t="s">
+      <c r="W61" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="U61" s="13" t="s">
+      <c r="X61" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="V61" s="13" t="s">
+      <c r="Y61" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="W61" s="13" t="s">
+      <c r="Z61" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="X61" s="13" t="s">
+      <c r="AA61" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Y61" s="13" t="s">
+      <c r="AB61" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Z61" s="13" t="s">
+      <c r="AC61" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AA61" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB61" s="13" t="s">
+      <c r="AD61" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE61" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AC61" s="13" t="s">
+      <c r="AF61" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AD61" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE61" s="13" t="s">
+      <c r="AG61" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH61" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AF61" s="13" t="s">
+      <c r="AI61" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AG61" s="13" t="s">
+      <c r="AJ61" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AH61" s="13" t="s">
+      <c r="AK61" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AI61" s="13" t="s">
+      <c r="AL61" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AJ61" s="13" t="s">
+      <c r="AM61" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN61" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AK61" s="13" t="s">
+      <c r="AO61" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AL61" s="13" t="s">
+      <c r="AP61" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AM61" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN61" s="13" t="s">
+      <c r="AQ61" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="AO61" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP61" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ61" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="AR61" s="14">
         <v>45901</v>
       </c>
       <c r="AS61" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,136 +3794,136 @@
         <v>2</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="13" t="s">
+      <c r="I62" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="13" t="s">
+      <c r="M62" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="N62" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O62" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L62" s="13" t="s">
+      <c r="P62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q62" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="R62" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N62" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="O62" s="13" t="s">
+      <c r="X62" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y62" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z62" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA62" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB62" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC62" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD62" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF62" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ62" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL62" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM62" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN62" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO62" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP62" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="P62" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q62" s="13" t="s">
+      <c r="AQ62" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R62" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V62" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y62" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z62" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA62" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB62" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC62" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD62" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE62" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF62" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH62" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ62" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK62" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL62" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM62" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN62" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO62" s="13" t="s">
+      <c r="AR62" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AP62" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ62" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR62" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="AS62" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,136 +3931,136 @@
         <v>3</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="T63" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="O63" s="13" t="s">
+      <c r="X63" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y63" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z63" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA63" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB63" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC63" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD63" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE63" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF63" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG63" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH63" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI63" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN63" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO63" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP63" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="P63" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q63" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S63" s="13" t="s">
+      <c r="AQ63" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="T63" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V63" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y63" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z63" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB63" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC63" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD63" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE63" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF63" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG63" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH63" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI63" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ63" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK63" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL63" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM63" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN63" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO63" s="13" t="s">
+      <c r="AR63" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AP63" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ63" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR63" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="AS63" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4059,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFAB524-2A5E-44D7-887B-6A79F4E0ED94}">
   <dimension ref="A3:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,18 +4093,18 @@
   <sheetData>
     <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -4091,13 +4113,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
@@ -4136,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
@@ -4150,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>2</v>
@@ -4164,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -4178,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>4</v>
@@ -4192,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -4206,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>6</v>
@@ -4220,7 +4242,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -4234,10 +4256,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4270,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -4262,7 +4284,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>9</v>
@@ -4276,7 +4298,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -4290,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
@@ -4304,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
@@ -4318,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
@@ -4332,7 +4354,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>14</v>
@@ -4346,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>15</v>
@@ -4360,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>16</v>
@@ -4374,7 +4396,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -4388,7 +4410,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
@@ -4402,7 +4424,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>19</v>
@@ -4416,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>20</v>
@@ -4430,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>21</v>
@@ -4444,7 +4466,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>22</v>
@@ -4458,7 +4480,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>23</v>
@@ -4472,7 +4494,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
@@ -4486,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>25</v>
@@ -4500,7 +4522,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>26</v>
@@ -4514,7 +4536,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>27</v>
@@ -4528,7 +4550,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>28</v>
@@ -4542,7 +4564,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>29</v>
@@ -4556,7 +4578,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>30</v>
@@ -4570,7 +4592,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>31</v>
@@ -4584,7 +4606,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>32</v>
@@ -4598,7 +4620,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>33</v>
@@ -4612,7 +4634,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>34</v>
@@ -4626,7 +4648,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>35</v>
@@ -4640,7 +4662,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>36</v>
@@ -4654,7 +4676,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>37</v>
@@ -4668,7 +4690,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>38</v>
@@ -4682,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>39</v>
@@ -4696,7 +4718,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>40</v>
@@ -4710,7 +4732,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>41</v>
@@ -4724,7 +4746,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>42</v>
@@ -4734,24 +4756,28 @@
       <c r="A52" s="4">
         <v>45</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="C52" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>46</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C53" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
